--- a/ResultSheet.xlsx
+++ b/ResultSheet.xlsx
@@ -6,36 +6,228 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Order Data" r:id="rId3" sheetId="1"/>
+    <sheet name="User Data" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Order_Id</t>
-  </si>
-  <si>
-    <t>Order_User_Id</t>
-  </si>
-  <si>
-    <t>Order_Amount</t>
-  </si>
-  <si>
-    <t>Order_Ship_Address</t>
-  </si>
-  <si>
-    <t>Order_City</t>
-  </si>
-  <si>
-    <t>Order_Phone</t>
-  </si>
-  <si>
-    <t>Order_Email</t>
-  </si>
-  <si>
-    <t>Order_Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>User_Id</t>
+  </si>
+  <si>
+    <t>User_Email</t>
+  </si>
+  <si>
+    <t>User_Password</t>
+  </si>
+  <si>
+    <t>User_name</t>
+  </si>
+  <si>
+    <t>User_City</t>
+  </si>
+  <si>
+    <t>User_Phone</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>user1@gmail.com</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>city1</t>
+  </si>
+  <si>
+    <t>0000000001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+  </si>
+  <si>
+    <t>password2</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>city2</t>
+  </si>
+  <si>
+    <t>0000000002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
+  </si>
+  <si>
+    <t>password3</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>city3</t>
+  </si>
+  <si>
+    <t>0000000003</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>user4@gmail.com</t>
+  </si>
+  <si>
+    <t>password4</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>city4</t>
+  </si>
+  <si>
+    <t>0007000001</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>user5@gmail.com</t>
+  </si>
+  <si>
+    <t>password5</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>city5</t>
+  </si>
+  <si>
+    <t>0000040002</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>user6@gmail.com</t>
+  </si>
+  <si>
+    <t>password6</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>city6</t>
+  </si>
+  <si>
+    <t>0000100003</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>user7@gmail.com</t>
+  </si>
+  <si>
+    <t>password7</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>city7</t>
+  </si>
+  <si>
+    <t>0000600001</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>user8@gmail.com</t>
+  </si>
+  <si>
+    <t>password8</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>city8</t>
+  </si>
+  <si>
+    <t>0800000002</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>user9@gmail.com</t>
+  </si>
+  <si>
+    <t>password9</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>city9</t>
+  </si>
+  <si>
+    <t>0000400003</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>user10@gmail.com</t>
+  </si>
+  <si>
+    <t>password10</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>city10</t>
+  </si>
+  <si>
+    <t>0770000001</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>use11r@gmail.com</t>
+  </si>
+  <si>
+    <t>password11</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>city11</t>
+  </si>
+  <si>
+    <t>0088000002</t>
   </si>
 </sst>
 </file>
@@ -80,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,11 +297,225 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
